--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,24 +493,152 @@
 3. 세무(Tax)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>3, 세무(Tax)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>20221208</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>初有
+1. 세무(Tax)
+2. 초유(First)
+3. 간만(Full)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>초유</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2, 초유(First)</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20221208</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>基盤
+1. 견해(opinion)
+2. 수용(Acceptance)
+3. 기반(basis)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3, 기반(basis)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20221208</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>理論
+1. 유리(favorable)
+2. 이론(theory)
+3. 알현(audience)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2, 이론(theory)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20221208</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>具現
+1. 견문(knowledge)
+2. 구현(Embodiment)
+3. 유리(favorable)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2, 구현(Embodiment)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221208</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>投手
+1. 비탄(grief)
+2. 유리(favorable)
+3. 투수(pitcher)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>세수</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3, 투수(pitcher)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>20221208</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23</t>
         </is>
       </c>
     </row>
